--- a/卒業論文/2012/関口元基/収集されたデータ.xlsx
+++ b/卒業論文/2012/関口元基/収集されたデータ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CommitCommentEvent</t>
   </si>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>GollumEvent</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -431,7 +435,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,6 +447,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
